--- a/cls/ablation/analysis.xlsx
+++ b/cls/ablation/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/pointsMLP/cls/ablation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5C2429-96F5-7442-B951-DF1828BF5B8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88605887-77C5-E64B-A69D-4168ECF20486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{1DBD9972-AE41-A641-9BAE-110ED69E24A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>PCT</t>
   </si>
@@ -52,19 +52,64 @@
   </si>
   <si>
     <t>which design useful</t>
+  </si>
+  <si>
+    <t>model25H-1</t>
+  </si>
+  <si>
+    <t>model25H-2</t>
+  </si>
+  <si>
+    <t>model25H-3</t>
+  </si>
+  <si>
+    <t>model25H-4</t>
+  </si>
+  <si>
+    <t>model25H-5</t>
+  </si>
+  <si>
+    <t>model25H-6</t>
+  </si>
+  <si>
+    <t>model25H-7</t>
+  </si>
+  <si>
+    <t>model25H-8</t>
+  </si>
+  <si>
+    <t>demo1</t>
+  </si>
+  <si>
+    <t>demo2</t>
+  </si>
+  <si>
+    <t>demo3</t>
+  </si>
+  <si>
+    <t>demo4</t>
+  </si>
+  <si>
+    <t>demo5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8280C3B-D739-664B-8BB2-36D09169EE17}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +460,7 @@
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>92.706999999999994</v>
       </c>
@@ -457,7 +503,7 @@
         <v>90.569249999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>92.584999999999994</v>
       </c>
@@ -480,7 +526,7 @@
         <v>90.470200000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>92.828000000000003</v>
       </c>
@@ -494,7 +540,7 @@
         <v>90.519000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>92.706999999999994</v>
       </c>
@@ -508,7 +554,7 @@
         <v>90.234999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>92.463999999999999</v>
       </c>
@@ -522,7 +568,7 @@
         <v>90.356999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>AVERAGE(A2:A6)</f>
         <v>92.658199999999994</v>
@@ -540,7 +586,7 @@
         <v>90.470200000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>STDEV(A2:A6)</f>
         <v>0.13844385143443641</v>
@@ -558,17 +604,164 @@
         <v>0.15673978435611005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>81.159000000000006</v>
+      </c>
+      <c r="C15" s="1">
+        <v>82.998000000000005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>82.616</v>
+      </c>
+      <c r="F15" s="1">
+        <v>82.096000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>81.748999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>81.921999999999997</v>
+      </c>
+      <c r="D16" s="1">
+        <v>82.13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>82.650999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>81.783000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>82.269000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>82.581999999999994</v>
+      </c>
+      <c r="F17" s="1">
+        <v>82.512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>81.055000000000007</v>
+      </c>
+      <c r="C18" s="1">
+        <v>82.304000000000002</v>
+      </c>
+      <c r="D18" s="1">
+        <v>81.956999999999994</v>
+      </c>
+      <c r="F18" s="1">
+        <v>82.650999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>81.227999999999994</v>
+      </c>
+      <c r="C19" s="1">
+        <v>82.234999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>82.2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>82.269000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>AVERAGE(B15:B19)</f>
+        <v>81.394800000000004</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="0">AVERAGE(C15:C19)</f>
+        <v>82.345600000000019</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>82.296999999999997</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>82.4358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f>STDEV(B15:B19)</f>
+        <v>0.3446174690870995</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" si="1">STDEV(C15:C19)</f>
+        <v>0.39525093295272806</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.28977750085194737</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.24582249693630184</v>
       </c>
     </row>
   </sheetData>

--- a/cls/ablation/analysis.xlsx
+++ b/cls/ablation/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/pointsMLP/cls/ablation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88605887-77C5-E64B-A69D-4168ECF20486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21A4C1-4A7F-D04A-83ED-464207F1A86D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14400" xr2:uid="{1DBD9972-AE41-A641-9BAE-110ED69E24A6}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,8 +656,20 @@
       <c r="D15" s="1">
         <v>82.616</v>
       </c>
+      <c r="E15" s="1">
+        <v>82.2</v>
+      </c>
       <c r="F15" s="1">
         <v>82.096000000000004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>82.269000000000005</v>
+      </c>
+      <c r="H15" s="1">
+        <v>82.686000000000007</v>
+      </c>
+      <c r="I15" s="1">
+        <v>82.061000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,11 +685,23 @@
       <c r="D16" s="1">
         <v>82.13</v>
       </c>
+      <c r="E16" s="1">
+        <v>81.817999999999998</v>
+      </c>
       <c r="F16" s="1">
         <v>82.650999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>82.894000000000005</v>
+      </c>
+      <c r="H16" s="1">
+        <v>82.234999999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>82.512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -690,11 +714,23 @@
       <c r="D17" s="1">
         <v>82.581999999999994</v>
       </c>
+      <c r="E17" s="1">
+        <v>82.408000000000001</v>
+      </c>
       <c r="F17" s="1">
         <v>82.512</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>82.304000000000002</v>
+      </c>
+      <c r="H17" s="1">
+        <v>82.72</v>
+      </c>
+      <c r="I17" s="1">
+        <v>82.686000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -707,11 +743,20 @@
       <c r="D18" s="1">
         <v>81.956999999999994</v>
       </c>
+      <c r="E18" s="1">
+        <v>82.096000000000004</v>
+      </c>
       <c r="F18" s="1">
         <v>82.650999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>82.581999999999994</v>
+      </c>
+      <c r="H18" s="1">
+        <v>82.823999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -724,11 +769,14 @@
       <c r="D19" s="1">
         <v>82.2</v>
       </c>
+      <c r="E19" s="1">
+        <v>82.442999999999998</v>
+      </c>
       <c r="F19" s="1">
         <v>82.269000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20">
         <f>AVERAGE(B15:B19)</f>
         <v>81.394800000000004</v>
@@ -741,12 +789,16 @@
         <f t="shared" si="0"/>
         <v>82.296999999999997</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>82.192999999999998</v>
+      </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>82.4358</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>STDEV(B15:B19)</f>
         <v>0.3446174690870995</v>
@@ -758,6 +810,10 @@
       <c r="D21">
         <f t="shared" si="1"/>
         <v>0.28977750085194737</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="2">STDEV(E15:E19)</f>
+        <v>0.25436587821482681</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
